--- a/biology/Écologie/Indice_kilométrique_d'abondance/Indice_kilométrique_d'abondance.xlsx
+++ b/biology/Écologie/Indice_kilométrique_d'abondance/Indice_kilométrique_d'abondance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_kilom%C3%A9trique_d%27abondance</t>
+          <t>Indice_kilométrique_d'abondance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice kilométrique d'abondance (ou IKA) est une méthode permettant de mesurer une abondance relative d'espèces le long d'un trajet. Elle a été développée en 1958 par Ferry et Frochot[1] et permet, dans un milieu homogène, d'obtenir une abondance par kilomètre pour chacune.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice kilométrique d'abondance (ou IKA) est une méthode permettant de mesurer une abondance relative d'espèces le long d'un trajet. Elle a été développée en 1958 par Ferry et Frochot et permet, dans un milieu homogène, d'obtenir une abondance par kilomètre pour chacune.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_kilom%C3%A9trique_d%27abondance</t>
+          <t>Indice_kilométrique_d'abondance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'observateur parcourt une distance comprise entre 500 et 1 000 m, à une vitesse constante et note pour chaque espèce observée le nombre d'individus rencontrés et leurs positions sur le transect.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_kilom%C3%A9trique_d%27abondance</t>
+          <t>Indice_kilométrique_d'abondance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle complète ou remplace d'autres approches dont 
 le suivi de population par capture-marquage-recapture ;
